--- a/document/yigim (payment)/Test Case.xlsx
+++ b/document/yigim (payment)/Test Case.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rashad\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\elan\document\yigim (payment)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -477,7 +477,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
